--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572972.1289834285</v>
+        <v>570273.07688952</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>61.57494829067505</v>
       </c>
       <c r="H2" t="n">
-        <v>162.5831330369104</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>180.7176861318881</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>176.0166538343222</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U4" t="n">
-        <v>78.57535756863523</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>258.1179054953395</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.1217610028605</v>
+        <v>12.12176100286049</v>
       </c>
       <c r="H5" t="n">
-        <v>306.8976264094352</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>87.84129258094039</v>
+        <v>87.84129258094077</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>136.5335673127885</v>
+        <v>136.5335673127887</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>251.0911747868545</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>226.968147373376</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>99.9424323279092</v>
+        <v>49.40169138871416</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.6415446830818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841044</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.79801895224378</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>140.0697787646035</v>
       </c>
       <c r="T6" t="n">
-        <v>193.3045852332498</v>
+        <v>193.3045852332499</v>
       </c>
       <c r="U6" t="n">
         <v>225.8294102072821</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1358328502781</v>
+        <v>73.24771028932001</v>
       </c>
       <c r="S7" t="n">
-        <v>199.1500311756599</v>
+        <v>199.15003117566</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.8489350595717</v>
       </c>
       <c r="U7" t="n">
         <v>286.241199726252</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>28.1682995838612</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>266.8870128541513</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>363.5377921948945</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>110.2749433350629</v>
+        <v>8.90616225919203</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>119.1760296373277</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>222.6434959374191</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184546</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530785</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.4362430031769</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>118.0940871474021</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927372</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905234</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722606</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>60.11729550773592</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710065</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819407</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>103.168699193619</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.98898794535084</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>144.4286493356909</v>
+        <v>103.1686991936189</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>142.8873577254022</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.97427419833838</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.372291733706</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>33.55293486399702</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>5.89033710687778</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471645</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428152</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.0656089242822</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>229.2938944146493</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.4030692042953</v>
+        <v>589.7227393823974</v>
       </c>
       <c r="C2" t="n">
-        <v>199.4030692042953</v>
+        <v>589.7227393823974</v>
       </c>
       <c r="D2" t="n">
-        <v>199.4030692042953</v>
+        <v>589.7227393823974</v>
       </c>
       <c r="E2" t="n">
-        <v>199.4030692042953</v>
+        <v>400.3029543659127</v>
       </c>
       <c r="F2" t="n">
-        <v>192.4575684550919</v>
+        <v>393.3574536167093</v>
       </c>
       <c r="G2" t="n">
-        <v>179.2274338792757</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079183</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372648</v>
+        <v>589.7227393823974</v>
       </c>
       <c r="T2" t="n">
-        <v>388.8228542207801</v>
+        <v>589.7227393823974</v>
       </c>
       <c r="U2" t="n">
-        <v>388.8228542207801</v>
+        <v>589.7227393823974</v>
       </c>
       <c r="V2" t="n">
-        <v>199.4030692042953</v>
+        <v>589.7227393823974</v>
       </c>
       <c r="W2" t="n">
-        <v>199.4030692042953</v>
+        <v>589.7227393823974</v>
       </c>
       <c r="X2" t="n">
-        <v>199.4030692042953</v>
+        <v>589.7227393823974</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.4030692042953</v>
+        <v>589.7227393823974</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
         <v>15.00204697330559</v>
@@ -4410,7 +4410,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
         <v>183.5548280772649</v>
@@ -4422,37 +4422,37 @@
         <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843275</v>
+        <v>571.6362168389237</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843275</v>
+        <v>382.216431822439</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843275</v>
+        <v>382.216431822439</v>
       </c>
       <c r="V3" t="n">
-        <v>540.37617497939</v>
+        <v>382.216431822439</v>
       </c>
       <c r="W3" t="n">
-        <v>350.9563899629053</v>
+        <v>382.216431822439</v>
       </c>
       <c r="X3" t="n">
-        <v>350.9563899629053</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>343.7726552112479</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>343.7726552112479</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>193.6560157989121</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>193.6560157989121</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>193.6560157989121</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>193.6560157989121</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
+        <v>106.7151088594233</v>
+      </c>
+      <c r="L4" t="n">
+        <v>261.7447676371618</v>
+      </c>
+      <c r="M4" t="n">
+        <v>447.3950989318184</v>
+      </c>
+      <c r="N4" t="n">
+        <v>633.0454302264751</v>
+      </c>
+      <c r="O4" t="n">
+        <v>634.3723839608016</v>
+      </c>
+      <c r="P4" t="n">
+        <v>750.1023486652794</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>750.1023486652794</v>
+      </c>
+      <c r="R4" t="n">
+        <v>750.1023486652794</v>
+      </c>
+      <c r="S4" t="n">
+        <v>583.2614020227597</v>
+      </c>
+      <c r="T4" t="n">
+        <v>393.841617006275</v>
+      </c>
+      <c r="U4" t="n">
+        <v>204.4218319897903</v>
+      </c>
+      <c r="V4" t="n">
+        <v>204.4218319897903</v>
+      </c>
+      <c r="W4" t="n">
         <v>15.00204697330559</v>
       </c>
-      <c r="L4" t="n">
-        <v>187.8896250884407</v>
-      </c>
-      <c r="M4" t="n">
-        <v>373.5399563830973</v>
-      </c>
-      <c r="N4" t="n">
-        <v>471.6341805242515</v>
-      </c>
-      <c r="O4" t="n">
-        <v>634.3723839608017</v>
-      </c>
-      <c r="P4" t="n">
-        <v>750.1023486652795</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>746.7254979846272</v>
-      </c>
-      <c r="R4" t="n">
-        <v>612.5614882768591</v>
-      </c>
-      <c r="S4" t="n">
-        <v>612.5614882768591</v>
-      </c>
-      <c r="T4" t="n">
-        <v>423.1417032603744</v>
-      </c>
-      <c r="U4" t="n">
-        <v>343.7726552112479</v>
-      </c>
-      <c r="V4" t="n">
-        <v>343.7726552112479</v>
-      </c>
-      <c r="W4" t="n">
-        <v>343.7726552112479</v>
-      </c>
       <c r="X4" t="n">
-        <v>343.7726552112479</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>343.7726552112479</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1113.302105075384</v>
+        <v>531.2726948826556</v>
       </c>
       <c r="C5" t="n">
-        <v>1113.302105075384</v>
+        <v>531.2726948826556</v>
       </c>
       <c r="D5" t="n">
-        <v>1113.302105075384</v>
+        <v>531.2726948826556</v>
       </c>
       <c r="E5" t="n">
-        <v>1113.302105075384</v>
+        <v>145.4844422844114</v>
       </c>
       <c r="F5" t="n">
-        <v>852.5769480093849</v>
+        <v>138.538941535208</v>
       </c>
       <c r="G5" t="n">
-        <v>436.2923409357884</v>
+        <v>126.2947385020155</v>
       </c>
       <c r="H5" t="n">
-        <v>126.2947385020154</v>
+        <v>126.2947385020155</v>
       </c>
       <c r="I5" t="n">
-        <v>37.56616013742914</v>
+        <v>37.56616013742889</v>
       </c>
       <c r="J5" t="n">
-        <v>125.6123058620869</v>
+        <v>125.6123058620861</v>
       </c>
       <c r="K5" t="n">
-        <v>308.3091729405706</v>
+        <v>308.3091729405684</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714453</v>
+        <v>571.8625535714414</v>
       </c>
       <c r="M5" t="n">
-        <v>896.7859082672687</v>
+        <v>896.7859082672626</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.580670917812</v>
+        <v>1231.580670917804</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.38261037952</v>
+        <v>1534.38261037951</v>
       </c>
       <c r="P5" t="n">
-        <v>1758.31605928067</v>
+        <v>1758.316059280659</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871457</v>
+        <v>1878.308006871445</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871457</v>
+        <v>1878.308006871445</v>
       </c>
       <c r="S5" t="n">
-        <v>1740.395312616115</v>
+        <v>1740.395312616103</v>
       </c>
       <c r="T5" t="n">
-        <v>1740.395312616115</v>
+        <v>1740.395312616103</v>
       </c>
       <c r="U5" t="n">
-        <v>1486.767863336464</v>
+        <v>1486.767863336452</v>
       </c>
       <c r="V5" t="n">
-        <v>1486.767863336464</v>
+        <v>1257.50710841385</v>
       </c>
       <c r="W5" t="n">
-        <v>1486.767863336464</v>
+        <v>904.7384531437356</v>
       </c>
       <c r="X5" t="n">
-        <v>1113.302105075384</v>
+        <v>531.2726948826556</v>
       </c>
       <c r="Y5" t="n">
-        <v>1113.302105075384</v>
+        <v>531.2726948826556</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>549.9390707788727</v>
+        <v>408.4544457641095</v>
       </c>
       <c r="C6" t="n">
-        <v>549.9390707788727</v>
+        <v>234.0014164829825</v>
       </c>
       <c r="D6" t="n">
-        <v>549.9390707788727</v>
+        <v>234.0014164829825</v>
       </c>
       <c r="E6" t="n">
-        <v>448.9871189324998</v>
+        <v>184.1007181105439</v>
       </c>
       <c r="F6" t="n">
-        <v>302.4525609593848</v>
+        <v>37.56616013742889</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4408996633425</v>
+        <v>37.56616013742889</v>
       </c>
       <c r="H6" t="n">
-        <v>68.67527019020064</v>
+        <v>37.56616013742889</v>
       </c>
       <c r="I6" t="n">
-        <v>37.56616013742914</v>
+        <v>37.56616013742889</v>
       </c>
       <c r="J6" t="n">
-        <v>71.18799439756012</v>
+        <v>196.0181193845641</v>
       </c>
       <c r="K6" t="n">
-        <v>206.8078890800188</v>
+        <v>351.2056772682068</v>
       </c>
       <c r="L6" t="n">
-        <v>435.4881151702606</v>
+        <v>579.8859033584474</v>
       </c>
       <c r="M6" t="n">
-        <v>888.085737510715</v>
+        <v>1044.76713505913</v>
       </c>
       <c r="N6" t="n">
-        <v>1352.966969211401</v>
+        <v>1352.966969211391</v>
       </c>
       <c r="O6" t="n">
-        <v>1612.689810537065</v>
+        <v>1612.689810537054</v>
       </c>
       <c r="P6" t="n">
-        <v>1801.807222027795</v>
+        <v>1801.807222027783</v>
       </c>
       <c r="Q6" t="n">
-        <v>1878.308006871457</v>
+        <v>1878.308006871445</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871457</v>
+        <v>1878.308006871445</v>
       </c>
       <c r="S6" t="n">
-        <v>1878.308006871457</v>
+        <v>1736.823381856694</v>
       </c>
       <c r="T6" t="n">
-        <v>1683.050850070195</v>
+        <v>1541.566225055431</v>
       </c>
       <c r="U6" t="n">
-        <v>1454.940334709304</v>
+        <v>1313.45570969454</v>
       </c>
       <c r="V6" t="n">
-        <v>1219.788226477561</v>
+        <v>1078.303601462798</v>
       </c>
       <c r="W6" t="n">
-        <v>965.5508697493594</v>
+        <v>824.0662447345962</v>
       </c>
       <c r="X6" t="n">
-        <v>757.6993695438266</v>
+        <v>616.2147445290634</v>
       </c>
       <c r="Y6" t="n">
-        <v>549.9390707788727</v>
+        <v>408.4544457641095</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>334.5727470476752</v>
+        <v>37.56616013742889</v>
       </c>
       <c r="C7" t="n">
-        <v>334.5727470476752</v>
+        <v>37.56616013742889</v>
       </c>
       <c r="D7" t="n">
-        <v>184.4561076353395</v>
+        <v>37.56616013742889</v>
       </c>
       <c r="E7" t="n">
-        <v>184.4561076353395</v>
+        <v>37.56616013742889</v>
       </c>
       <c r="F7" t="n">
-        <v>37.56616013742914</v>
+        <v>37.56616013742889</v>
       </c>
       <c r="G7" t="n">
-        <v>37.56616013742914</v>
+        <v>37.56616013742889</v>
       </c>
       <c r="H7" t="n">
-        <v>37.56616013742914</v>
+        <v>37.56616013742889</v>
       </c>
       <c r="I7" t="n">
-        <v>37.56616013742914</v>
+        <v>37.56616013742889</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256557</v>
+        <v>45.011942492565</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0844868696028</v>
+        <v>187.0844868696017</v>
       </c>
       <c r="L7" t="n">
-        <v>424.4148644101289</v>
+        <v>424.4148644101271</v>
       </c>
       <c r="M7" t="n">
-        <v>685.0355944467497</v>
+        <v>685.0355944467472</v>
       </c>
       <c r="N7" t="n">
-        <v>944.8939624609266</v>
+        <v>944.8939624609234</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.898929103174</v>
+        <v>1168.898929103171</v>
       </c>
       <c r="P7" t="n">
-        <v>1337.053193890531</v>
+        <v>1337.053193890527</v>
       </c>
       <c r="Q7" t="n">
-        <v>1370.03941055281</v>
+        <v>1370.039410552806</v>
       </c>
       <c r="R7" t="n">
-        <v>1255.760791512125</v>
+        <v>1296.051824401977</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.599143859943</v>
+        <v>1094.890176749795</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.599143859943</v>
+        <v>870.8003433562885</v>
       </c>
       <c r="U7" t="n">
-        <v>765.4666188839311</v>
+        <v>581.6678183802763</v>
       </c>
       <c r="V7" t="n">
-        <v>765.4666188839311</v>
+        <v>326.9833301743895</v>
       </c>
       <c r="W7" t="n">
-        <v>737.0137910214451</v>
+        <v>37.56616013742889</v>
       </c>
       <c r="X7" t="n">
-        <v>737.0137910214451</v>
+        <v>37.56616013742889</v>
       </c>
       <c r="Y7" t="n">
-        <v>516.2212118779149</v>
+        <v>37.56616013742889</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1471.210842731383</v>
+        <v>742.878294495355</v>
       </c>
       <c r="C8" t="n">
-        <v>1102.248325790971</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="D8" t="n">
-        <v>1102.248325790971</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>1102.248325790971</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>691.2624210013639</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795505</v>
+        <v>1133.017626471167</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.810682795505</v>
+        <v>742.878294495355</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380231</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694948</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>565.1427566090754</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="C10" t="n">
-        <v>565.1427566090754</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="D10" t="n">
-        <v>565.1427566090754</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="E10" t="n">
-        <v>417.2296630266823</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="F10" t="n">
-        <v>417.2296630266823</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.23396574994</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.549477544053</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>793.1323075070927</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>565.1427566090754</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y10" t="n">
-        <v>565.1427566090754</v>
+        <v>60.24291006213647</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2042.846822881341</v>
+        <v>1485.490329133572</v>
       </c>
       <c r="C11" t="n">
-        <v>1673.884305940929</v>
+        <v>1485.490329133572</v>
       </c>
       <c r="D11" t="n">
-        <v>1315.618607334179</v>
+        <v>1127.224630526822</v>
       </c>
       <c r="E11" t="n">
-        <v>929.8303547359346</v>
+        <v>741.4363779285782</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194421</v>
+        <v>741.4363779285781</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605877</v>
+        <v>326.8206133697234</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
         <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656962</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625331</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087833</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484045</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535299</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479998</v>
+        <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464063</v>
+        <v>3789.749829464061</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796039</v>
+        <v>3776.999350345378</v>
       </c>
       <c r="T11" t="n">
-        <v>3876.883295796039</v>
+        <v>3573.020743926742</v>
       </c>
       <c r="U11" t="n">
-        <v>3876.883295796039</v>
+        <v>3319.526802048271</v>
       </c>
       <c r="V11" t="n">
-        <v>3545.820408452468</v>
+        <v>2988.4639147047</v>
       </c>
       <c r="W11" t="n">
-        <v>3193.051753182354</v>
+        <v>2635.695259434586</v>
       </c>
       <c r="X11" t="n">
-        <v>2819.585994921275</v>
+        <v>2262.229501173506</v>
       </c>
       <c r="Y11" t="n">
-        <v>2429.446662945463</v>
+        <v>1872.090169197694</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592078</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335453</v>
+        <v>470.7769964046655</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914971</v>
+        <v>488.5008422034065</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.127176948026</v>
+        <v>996.4574081599346</v>
       </c>
       <c r="N12" t="n">
-        <v>1816.936486649236</v>
+        <v>1532.266717861145</v>
       </c>
       <c r="O12" t="n">
-        <v>2284.877530981759</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>613.6225220643921</v>
+        <v>365.7608055583752</v>
       </c>
       <c r="C13" t="n">
-        <v>613.6225220643921</v>
+        <v>196.8246226304683</v>
       </c>
       <c r="D13" t="n">
-        <v>463.5058826520564</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="E13" t="n">
-        <v>315.5927890696632</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="F13" t="n">
-        <v>168.7028415717529</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7028415717529</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717529</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648147</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344815</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
         <v>1086.20859537694</v>
@@ -5212,37 +5212,37 @@
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010724</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925584</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>2056.743466925584</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1835.852134360025</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1546.760441309476</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.075953103589</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>1002.658783066628</v>
+        <v>814.5429355999227</v>
       </c>
       <c r="X13" t="n">
-        <v>774.669232168611</v>
+        <v>586.5533847019053</v>
       </c>
       <c r="Y13" t="n">
-        <v>774.669232168611</v>
+        <v>365.7608055583752</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756265</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2386.238542663355</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2203.383708318259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5519,46 +5519,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.955532171245</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.6039970014882</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703103</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C22" t="n">
-        <v>695.5020655703103</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>695.5020655703102</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138404</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703103</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6072,22 +6072,22 @@
         <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851669</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>527.77225215726</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D25" t="n">
-        <v>527.77225215726</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>379.8591585748669</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>379.8591585748669</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154066</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1652.717886400351</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>2204.627616639638</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400718</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121649</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121649</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121649</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121649</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270448</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138416</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703115</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>700.7543264856228</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854703</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611856</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713839</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>882.4027913158623</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038335</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>961.4835393015906</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,16 +7020,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400711</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121642</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121642</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121642</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121642</v>
+        <v>198.0274703142541</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270441</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,7 +7096,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797742</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713841</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400718</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121649</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121649</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270448</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,7 +7348,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7366,16 +7366,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138416</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703115</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,7 +7591,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,19 +8137,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>144.4363991805478</v>
       </c>
       <c r="M4" t="n">
         <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>75.41988959484648</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.76852197496441</v>
+        <v>15.76852197496504</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>19.76531636483318</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>168.0623398690033</v>
+        <v>180.4700260914574</v>
       </c>
       <c r="N6" t="n">
-        <v>158.2640379276997</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>40.00791436438827</v>
+        <v>40.00791436438861</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>287.7000161043837</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>67.33400740195572</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615206</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.39573717876041</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>30.52138587081022</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
@@ -23434,7 +23434,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922682</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.13892827624221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.257951202385783</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345295021</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.5956654067439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>2.005313310878245</v>
+        <v>43.26526345295029</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>22.6367805668667</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459286</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.4596884482313</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.0317184880978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>280.2941372823664</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.73700564187266</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864943</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194236</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>57.22910392194166</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459318</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>929155.3225732668</v>
+        <v>929155.3225732663</v>
       </c>
     </row>
     <row r="6">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.884932142</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="E2" t="n">
-        <v>366294.6221371984</v>
+        <v>366294.6221371981</v>
       </c>
       <c r="F2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="H2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="I2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="J2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="K2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="L2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="M2" t="n">
         <v>403573.2998450029</v>
@@ -26350,7 +26350,7 @@
         <v>403573.2998450031</v>
       </c>
       <c r="O2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="P2" t="n">
         <v>403573.2998450031</v>
@@ -26363,25 +26363,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>312214.8578912901</v>
+        <v>312214.857891287</v>
       </c>
       <c r="D3" t="n">
-        <v>175413.4991972648</v>
+        <v>175413.499197268</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545781</v>
+        <v>313577.1573545772</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704279</v>
+        <v>189308.2687704289</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.00846030188</v>
+        <v>72591.00846030109</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.54279925494</v>
+        <v>43280.54279925572</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273094</v>
+        <v>81897.4037127308</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202341</v>
+        <v>49839.5741320236</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
-        <v>195152.1081057574</v>
+        <v>195152.1081057584</v>
       </c>
       <c r="D4" t="n">
         <v>146359.3674130576</v>
@@ -26433,31 +26433,31 @@
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685504</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
+        <v>14216.75207685506</v>
+      </c>
+      <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="K4" t="n">
-        <v>14216.75207685501</v>
-      </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685504</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="P4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14216.75207685511</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>79427.52208638309</v>
+        <v>79427.52208638284</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738573</v>
+        <v>85137.48506738567</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-515990.9946635234</v>
+        <v>-515990.9946635237</v>
       </c>
       <c r="C6" t="n">
-        <v>-176273.6031512889</v>
+        <v>-176273.6031512865</v>
       </c>
       <c r="D6" t="n">
-        <v>-4189.754118025448</v>
+        <v>-4189.754118028606</v>
       </c>
       <c r="E6" t="n">
-        <v>-46531.35380197399</v>
+        <v>-46752.48511594806</v>
       </c>
       <c r="F6" t="n">
-        <v>98925.74917381303</v>
+        <v>98891.01124837631</v>
       </c>
       <c r="G6" t="n">
-        <v>288234.0179442411</v>
+        <v>288199.2800188052</v>
       </c>
       <c r="H6" t="n">
-        <v>288234.0179442408</v>
+        <v>288199.2800188052</v>
       </c>
       <c r="I6" t="n">
-        <v>288234.0179442409</v>
+        <v>288199.2800188053</v>
       </c>
       <c r="J6" t="n">
-        <v>239169.0732156963</v>
+        <v>239134.3352902604</v>
       </c>
       <c r="K6" t="n">
-        <v>215643.009483939</v>
+        <v>215608.2715585041</v>
       </c>
       <c r="L6" t="n">
-        <v>244953.475144986</v>
+        <v>244918.7372195494</v>
       </c>
       <c r="M6" t="n">
-        <v>206336.6142315098</v>
+        <v>206301.8763060742</v>
       </c>
       <c r="N6" t="n">
-        <v>238394.4438122175</v>
+        <v>238359.7058867816</v>
       </c>
       <c r="O6" t="n">
-        <v>288234.0179442409</v>
+        <v>288199.2800188051</v>
       </c>
       <c r="P6" t="n">
-        <v>288234.0179442409</v>
+        <v>288199.2800188052</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>791.2679074283002</v>
+        <v>791.2679074282977</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>469.5770017178643</v>
+        <v>469.5770017178612</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490097</v>
+        <v>969.2208239490092</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>242.7979665153956</v>
+        <v>242.7979665153932</v>
       </c>
       <c r="D3" t="n">
-        <v>142.7969846892389</v>
+        <v>142.7969846892416</v>
       </c>
       <c r="E3" t="n">
-        <v>268.176345097412</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267225</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>282.0514145515444</v>
+        <v>282.0514145515414</v>
       </c>
       <c r="D4" t="n">
-        <v>171.0078303821746</v>
+        <v>171.0078303821776</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489709</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506384</v>
+        <v>203.4874641506392</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515444</v>
+        <v>282.0514145515414</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821746</v>
+        <v>171.0078303821776</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489709</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506384</v>
+        <v>203.4874641506392</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515444</v>
+        <v>282.0514145515414</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821746</v>
+        <v>171.0078303821776</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489709</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506384</v>
+        <v>203.4874641506392</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>351.5228849393829</v>
       </c>
       <c r="H2" t="n">
-        <v>154.310693069312</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,7 +27476,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681412</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>52.08290101753718</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>29.75633136915525</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098449</v>
+        <v>18.15710861098452</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>41.60771861940182</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378023</v>
+        <v>36.19408632378026</v>
       </c>
       <c r="U4" t="n">
-        <v>207.689723924815</v>
+        <v>98.73949432713043</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027116</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>148.758140246372</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>306.8976264094353</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.1711248816494</v>
+        <v>209.1711248816495</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>100.7841110967589</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>57.70264812749174</v>
+        <v>108.2433890666868</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.6415446830818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.7979731784105</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>30.79801895224396</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>140.0697787646034</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.5641028040799</v>
       </c>
       <c r="H7" t="n">
-        <v>149.5409427785071</v>
+        <v>149.5409427785072</v>
       </c>
       <c r="I7" t="n">
-        <v>112.5404054555728</v>
+        <v>112.5404054555729</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>39.88812256095834</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.8489350595716</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>258.3546987527298</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>144.6606899188027</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.193308483574526</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>56.03165670974128</v>
+        <v>157.4004377856122</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28062,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.169834245014018e-12</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-8.889047938268685e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29931,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31075,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31121,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31130,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31139,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31148,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180976512274571</v>
+        <v>3.180976512274561</v>
       </c>
       <c r="H5" t="n">
-        <v>32.57717570633196</v>
+        <v>32.57717570633186</v>
       </c>
       <c r="I5" t="n">
-        <v>122.6345969894655</v>
+        <v>122.6345969894651</v>
       </c>
       <c r="J5" t="n">
-        <v>269.9814052586642</v>
+        <v>269.9814052586633</v>
       </c>
       <c r="K5" t="n">
-        <v>404.6321410232468</v>
+        <v>404.6321410232455</v>
       </c>
       <c r="L5" t="n">
-        <v>501.9819509607698</v>
+        <v>501.9819509607682</v>
       </c>
       <c r="M5" t="n">
-        <v>558.5516420109327</v>
+        <v>558.5516420109309</v>
       </c>
       <c r="N5" t="n">
-        <v>567.5895915264329</v>
+        <v>567.589591526431</v>
       </c>
       <c r="O5" t="n">
-        <v>535.9587563325026</v>
+        <v>535.9587563325009</v>
       </c>
       <c r="P5" t="n">
-        <v>457.428398685724</v>
+        <v>457.4283986857226</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.5096773398909</v>
+        <v>343.5096773398898</v>
       </c>
       <c r="R5" t="n">
-        <v>199.8170158391677</v>
+        <v>199.8170158391671</v>
       </c>
       <c r="S5" t="n">
-        <v>72.48650227345686</v>
+        <v>72.48650227345664</v>
       </c>
       <c r="T5" t="n">
-        <v>13.92472468248194</v>
+        <v>13.9247246824819</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2544781209819656</v>
+        <v>0.2544781209819648</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.701972480128797</v>
+        <v>1.701972480128791</v>
       </c>
       <c r="H6" t="n">
-        <v>16.43747105808601</v>
+        <v>16.43747105808596</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5986138991713</v>
+        <v>58.59861389917111</v>
       </c>
       <c r="J6" t="n">
-        <v>160.7990754142737</v>
+        <v>160.7990754142732</v>
       </c>
       <c r="K6" t="n">
-        <v>274.8312315829031</v>
+        <v>274.8312315829023</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5445071437547</v>
+        <v>369.5445071437536</v>
       </c>
       <c r="M6" t="n">
-        <v>431.2410095484236</v>
+        <v>431.2410095484222</v>
       </c>
       <c r="N6" t="n">
-        <v>442.6546758734979</v>
+        <v>442.6546758734965</v>
       </c>
       <c r="O6" t="n">
-        <v>404.9425488138019</v>
+        <v>404.9425488138006</v>
       </c>
       <c r="P6" t="n">
-        <v>325.0020957888051</v>
+        <v>325.0020957888041</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.255294130125</v>
+        <v>217.2552941301243</v>
       </c>
       <c r="R6" t="n">
-        <v>105.6715895995757</v>
+        <v>105.6715895995753</v>
       </c>
       <c r="S6" t="n">
-        <v>31.61339233923443</v>
+        <v>31.61339233923433</v>
       </c>
       <c r="T6" t="n">
-        <v>6.86014346157177</v>
+        <v>6.860143461571749</v>
       </c>
       <c r="U6" t="n">
-        <v>0.111971873692684</v>
+        <v>0.1119718736926837</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.426876554378902</v>
+        <v>1.426876554378897</v>
       </c>
       <c r="H7" t="n">
-        <v>12.68622972893243</v>
+        <v>12.68622972893239</v>
       </c>
       <c r="I7" t="n">
-        <v>42.91006947168553</v>
+        <v>42.9100694716854</v>
       </c>
       <c r="J7" t="n">
-        <v>100.8801723945884</v>
+        <v>100.880172394588</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7771124087487</v>
+        <v>165.7771124087482</v>
       </c>
       <c r="L7" t="n">
-        <v>212.1376288210233</v>
+        <v>212.1376288210226</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6693857014128</v>
+        <v>223.669385701412</v>
       </c>
       <c r="N7" t="n">
-        <v>218.3510276350916</v>
+        <v>218.3510276350909</v>
       </c>
       <c r="O7" t="n">
-        <v>201.6825151589379</v>
+        <v>201.6825151589373</v>
       </c>
       <c r="P7" t="n">
-        <v>172.5742334496082</v>
+        <v>172.5742334496076</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4814540216733</v>
+        <v>119.4814540216729</v>
       </c>
       <c r="R7" t="n">
-        <v>64.15755852689134</v>
+        <v>64.15755852689114</v>
       </c>
       <c r="S7" t="n">
-        <v>24.86656686131231</v>
+        <v>24.86656686131223</v>
       </c>
       <c r="T7" t="n">
-        <v>6.096654368709852</v>
+        <v>6.096654368709832</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07782963023884928</v>
+        <v>0.07782963023884903</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869146</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639241</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203918</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975129</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.704257454466</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954563</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180171</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956808</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620361</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825971</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.599140169663</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495316</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469214</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598383</v>
+        <v>417.574675759838</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747751</v>
+        <v>156.457254324057</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821483</v>
+        <v>655.2214742821478</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340509</v>
+        <v>672.5632370340504</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924477</v>
+        <v>615.2639659924473</v>
       </c>
       <c r="P12" t="n">
-        <v>411.2476038555581</v>
+        <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627655</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
         <v>0.1701284769643799</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798457</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770065</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.759454853103</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
-        <v>306.433553380624</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811714</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493541</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377488</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647502</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>539.0475940357389</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
-        <v>595.3275373121714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,7 +32558,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32792,13 +32792,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>428.6149474293401</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>485.927610870024</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,7 +33740,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,10 +33977,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,7 +34448,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062398</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>156.5956149270085</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
-        <v>99.08507489005474</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>116.8989542469472</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.93550073197787</v>
+        <v>88.93550073197702</v>
       </c>
       <c r="K5" t="n">
-        <v>184.5422899782662</v>
+        <v>184.542289978265</v>
       </c>
       <c r="L5" t="n">
-        <v>266.2155359907826</v>
+        <v>266.215535990781</v>
       </c>
       <c r="M5" t="n">
-        <v>328.20540878366</v>
+        <v>328.2054087836582</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1765279298419</v>
+        <v>338.1765279298401</v>
       </c>
       <c r="O5" t="n">
-        <v>305.8605449108159</v>
+        <v>305.8605449108142</v>
       </c>
       <c r="P5" t="n">
-        <v>226.1954029304545</v>
+        <v>226.195402930453</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.2039874654414</v>
+        <v>121.2039874654403</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>33.96144874760705</v>
+        <v>160.0524840880154</v>
       </c>
       <c r="K6" t="n">
-        <v>136.9897926085441</v>
+        <v>156.7551089733765</v>
       </c>
       <c r="L6" t="n">
-        <v>230.9901273638806</v>
+        <v>230.9901273638794</v>
       </c>
       <c r="M6" t="n">
-        <v>457.1693154954085</v>
+        <v>469.5770017178612</v>
       </c>
       <c r="N6" t="n">
-        <v>469.5770017178643</v>
+        <v>311.3129637901632</v>
       </c>
       <c r="O6" t="n">
-        <v>262.3463043693574</v>
+        <v>262.3463043693562</v>
       </c>
       <c r="P6" t="n">
-        <v>191.0276883744748</v>
+        <v>191.0276883744738</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.27352004410349</v>
+        <v>77.27352004410281</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.520992277915582</v>
+        <v>7.520992277915255</v>
       </c>
       <c r="K7" t="n">
-        <v>143.5076205828659</v>
+        <v>143.5076205828654</v>
       </c>
       <c r="L7" t="n">
-        <v>239.7276540813395</v>
+        <v>239.7276540813388</v>
       </c>
       <c r="M7" t="n">
-        <v>263.2532626632533</v>
+        <v>263.2532626632526</v>
       </c>
       <c r="N7" t="n">
-        <v>262.4832000143201</v>
+        <v>262.4832000143194</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2676430729776</v>
+        <v>226.267643072977</v>
       </c>
       <c r="P7" t="n">
-        <v>169.8527927145017</v>
+        <v>169.8527927145011</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.31941076997894</v>
+        <v>33.31941076997856</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313203</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937055</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525324</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681836</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214263</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.229922273994</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067666</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081476</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553091</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854793</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949009</v>
+        <v>17.9028745441828</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601299</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507176</v>
+        <v>541.2215249507171</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480032</v>
+        <v>472.6677215480029</v>
       </c>
       <c r="P12" t="n">
-        <v>277.2731964412278</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655345</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186284</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070199</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703704</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388471</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776323</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427319</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>396.4513495912944</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9858252288382</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>290.0605676494659</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>351.9532034556937</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010423</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096341</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191314</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
